--- a/xlTest.xlsx
+++ b/xlTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Today</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>autocall</t>
+  </si>
+  <si>
+    <t>Compile</t>
   </si>
 </sst>
 </file>
@@ -110,8 +113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -207,32 +210,33 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -307,44 +311,44 @@
             <c:numRef>
               <c:f>Sharp!$C$24:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>90.223999999997403</c:v>
+                  <c:v>90.534000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.457999999982079</c:v>
+                  <c:v>90.549000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.362999999973212</c:v>
+                  <c:v>89.963333333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.220750000007257</c:v>
+                  <c:v>90.436499999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.160200000033896</c:v>
+                  <c:v>90.466399999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.35516666665481</c:v>
+                  <c:v>90.444666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.347142857107599</c:v>
+                  <c:v>90.185285714285712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.409624999958481</c:v>
+                  <c:v>90.288124999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.3547777778181</c:v>
+                  <c:v>90.390777777777771</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.23189999997507</c:v>
+                  <c:v>90.509200000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="199673728"/>
-        <c:axId val="199675264"/>
+        <c:axId val="101395456"/>
+        <c:axId val="101401344"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -400,59 +404,59 @@
             <c:numRef>
               <c:f>Sharp!$E$24:$E$33</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>9.9999999999056399</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000238742</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.9999999999056399</c:v>
+                  <c:v>-46.666666666652645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-17.500000000012506</c:v>
+                  <c:v>7.5000000001068656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24.000000000086175</c:v>
+                  <c:v>-27.999999999934744</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-13.333333333349628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.7142857141911918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.750000000006821</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-17.500000000012506</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-15.55555555569299</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.99999999981128</c:v>
+                  <c:v>-18.000000000029104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="199682688"/>
-        <c:axId val="199681152"/>
+        <c:axId val="101404672"/>
+        <c:axId val="101402880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199673728"/>
+        <c:axId val="101395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="199675264"/>
+        <c:crossAx val="101401344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199675264"/>
+        <c:axId val="101401344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,26 +468,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199673728"/>
+        <c:crossAx val="101395456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199681152"/>
+        <c:axId val="101402880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199682688"/>
+        <c:crossAx val="101404672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199682688"/>
+        <c:axId val="101404672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +495,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="199681152"/>
+        <c:crossAx val="101402880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -504,7 +508,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -570,37 +574,37 @@
             <c:numRef>
               <c:f>Fuzzy!$C$24:$C$33</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>89.699999999997587</c:v>
+                  <c:v>90.53841562230177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.056999999981969</c:v>
+                  <c:v>90.54021286887307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.071999999973059</c:v>
+                  <c:v>89.983213897851684</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.558000000007993</c:v>
+                  <c:v>90.447593560414703</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.196400000035112</c:v>
+                  <c:v>90.458161913250038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.404666666654421</c:v>
+                  <c:v>90.436580109937722</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.30714285710927</c:v>
+                  <c:v>90.198551640081988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.392749999958625</c:v>
+                  <c:v>90.274651200532034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.341333333373967</c:v>
+                  <c:v>90.379822568486929</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.409299999973271</c:v>
+                  <c:v>90.517342947239527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,44 +662,44 @@
             <c:numRef>
               <c:f>Fuzzy!$F$24:$F$33</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>89.699999999997587</c:v>
+                  <c:v>90.534000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.056999999981969</c:v>
+                  <c:v>90.549000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.071999999973059</c:v>
+                  <c:v>89.963333333333338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.558000000007993</c:v>
+                  <c:v>90.436499999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.196400000035112</c:v>
+                  <c:v>90.466399999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.404666666654421</c:v>
+                  <c:v>90.444666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.30714285710927</c:v>
+                  <c:v>90.185285714285712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.392749999958625</c:v>
+                  <c:v>90.288124999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.341333333373967</c:v>
+                  <c:v>90.390777777777771</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.409299999973271</c:v>
+                  <c:v>90.509200000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="200234880"/>
-        <c:axId val="200236416"/>
+        <c:axId val="103193600"/>
+        <c:axId val="103207680"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -751,37 +755,37 @@
             <c:numRef>
               <c:f>Fuzzy!$E$24:$E$33</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-14.616404584302245</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0000000000238742</c:v>
+                  <c:v>-15.440242826230133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-18.368095686014385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-27.500000000060254</c:v>
+                  <c:v>-18.727000609857214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-30.000000000001137</c:v>
+                  <c:v>-17.181302262514464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.33333333330188</c:v>
+                  <c:v>-17.47917127389087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-11.428571428666601</c:v>
+                  <c:v>-18.22977830940431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2499999999704414</c:v>
+                  <c:v>-16.483305880825583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23.333333333255268</c:v>
+                  <c:v>-18.230837426074231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.99999999981128</c:v>
+                  <c:v>-17.305870947268431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,59 +843,59 @@
             <c:numRef>
               <c:f>Fuzzy!$G$24:$G$33</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.00_-;\-* #,##0.00_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>9.9999999999056399</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0000000000238742</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>-46.666666666652645</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5000000001068656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-27.999999999934744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-13.333333333349628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.7142857141911918</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.750000000006821</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-27.500000000060254</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-30.000000000001137</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.33333333330188</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-11.428571428666601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2499999999704414</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-23.333333333255268</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>-19.99999999981128</c:v>
+                  <c:v>-18.000000000029104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="200243840"/>
-        <c:axId val="200242304"/>
+        <c:axId val="103211008"/>
+        <c:axId val="103209216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="200234880"/>
+        <c:axId val="103193600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="200236416"/>
+        <c:crossAx val="103207680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200236416"/>
+        <c:axId val="103207680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,26 +907,26 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200234880"/>
+        <c:crossAx val="103193600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200242304"/>
+        <c:axId val="103209216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200243840"/>
+        <c:crossAx val="103211008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200243840"/>
+        <c:axId val="103211008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,19 +934,20 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="200242304"/>
+        <c:crossAx val="103209216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1305,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1316,10 +1321,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
@@ -1354,10 +1359,10 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
@@ -1376,223 +1381,229 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>42104</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>42470</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>42835</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>43200</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
         <v>23</v>
       </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="4" t="str">
-        <f t="array" aca="1" ref="B31:C34" ca="1">_xll.TestScript(C3,C4,C5,C6,B13:B28,C13:C28,C10,C9)</f>
+        <f t="array" aca="1" ref="B31:C34" ca="1">_xll.TestScript(C3,C4,C5,C6,B13:B28,C13:C28,C10,C9,,,,F30)</f>
         <v>ALIVE</v>
       </c>
       <c r="C31" s="4">
         <f ca="1"/>
-        <v>0.42542000000028468</v>
+        <v>0.42542000000000002</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -1602,7 +1613,7 @@
       </c>
       <c r="C32" s="4">
         <f ca="1"/>
-        <v>90.364399999974296</v>
+        <v>90.364400000000003</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -1636,19 +1647,19 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="13">
+      <c r="B39" s="12">
         <v>42470</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" t="s">
@@ -1665,228 +1676,228 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="13">
+      <c r="B42" s="12">
         <v>42104</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="13">
+      <c r="B43" s="12">
         <v>42134</v>
       </c>
-      <c r="C43" s="14" t="str">
+      <c r="C43" s="13" t="str">
         <f ca="1">"if spot() &gt; "&amp;$C$41&amp;" then alive = 0 endif"</f>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="13">
+      <c r="B44" s="12">
         <v>42165</v>
       </c>
-      <c r="C44" s="14" t="str">
+      <c r="C44" s="13" t="str">
         <f t="shared" ref="C44:C54" ca="1" si="0">"if spot() &gt; "&amp;$C$41&amp;" then alive = 0 endif"</f>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="13">
+      <c r="B45" s="12">
         <v>42195</v>
       </c>
-      <c r="C45" s="14" t="str">
+      <c r="C45" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="13">
+      <c r="B46" s="12">
         <v>42226</v>
       </c>
-      <c r="C46" s="14" t="str">
+      <c r="C46" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="13">
+      <c r="B47" s="12">
         <v>42257</v>
       </c>
-      <c r="C47" s="14" t="str">
+      <c r="C47" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>42287</v>
       </c>
-      <c r="C48" s="14" t="str">
+      <c r="C48" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>42318</v>
       </c>
-      <c r="C49" s="14" t="str">
+      <c r="C49" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="13">
+      <c r="B50" s="12">
         <v>42348</v>
       </c>
-      <c r="C50" s="14" t="str">
+      <c r="C50" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>42379</v>
       </c>
-      <c r="C51" s="14" t="str">
+      <c r="C51" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="13">
+      <c r="B52" s="12">
         <v>42410</v>
       </c>
-      <c r="C52" s="14" t="str">
+      <c r="C52" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="13">
+      <c r="B53" s="12">
         <v>42439</v>
       </c>
-      <c r="C53" s="14" t="str">
+      <c r="C53" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="13">
+      <c r="B54" s="12">
         <v>42470</v>
       </c>
-      <c r="C54" s="14" t="str">
+      <c r="C54" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>if spot() &gt; 110 then alive = 0 endif</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="13">
+      <c r="B55" s="12">
         <f ca="1">B54</f>
         <v>42470</v>
       </c>
-      <c r="C55" s="14" t="str">
+      <c r="C55" s="13" t="str">
         <f ca="1">"rko pays alive * max( spot() - "&amp;$E$41&amp;", 0)"</f>
         <v>rko pays alive * max( spot() - 100, 0)</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" t="s">
@@ -1894,34 +1905,34 @@
       </c>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="13">
+      <c r="B58" s="12">
         <v>42104</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="13">
+      <c r="B59" s="12">
         <v>42470</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="13">
+      <c r="B60" s="12">
         <v>42835</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="13">
+      <c r="B61" s="12">
         <v>43200</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1937,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J33"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1950,10 +1961,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
@@ -1962,6 +1973,12 @@
       <c r="C3" s="1">
         <v>42104</v>
       </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
@@ -1988,17 +2005,17 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="3">
@@ -2032,7 +2049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -2044,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -2066,7 +2083,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -2077,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2088,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2096,174 +2113,214 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:5">
+      <c r="A24" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>7936.7125337918733</v>
+      </c>
       <c r="B24" s="5">
         <v>10000</v>
       </c>
       <c r="C24" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$B24,C$18,C$19),C$22,2)</f>
-        <v>90.223999999997403</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$A24,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.534000000000006</v>
       </c>
       <c r="D24" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$B24,D$18,D$19),D$22,2)</f>
-        <v>90.223999999997403</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$A24,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.534999999999997</v>
       </c>
       <c r="E24" s="4">
         <f ca="1">(D24-C24)/$D$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>9.9999999999056399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>1147.9682829443109</v>
+      </c>
       <c r="B25" s="5">
         <v>20000</v>
       </c>
       <c r="C25" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$B25,C$18,C$19),C$22,2)</f>
-        <v>90.457999999982079</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$A25,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.549000000000007</v>
       </c>
       <c r="D25" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$B25,D$18,D$19),D$22,2)</f>
-        <v>90.458499999982081</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$A25,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.549000000000007</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ref="E25:E33" ca="1" si="0">(D25-C25)/$D$20</f>
-        <v>5.0000000000238742</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>38805.271604255722</v>
+      </c>
       <c r="B26" s="5">
         <v>30000</v>
       </c>
       <c r="C26" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$B26,C$18,C$19),C$22,2)</f>
-        <v>90.362999999973212</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$A26,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>89.963333333333338</v>
       </c>
       <c r="D26" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$B26,D$18,D$19),D$22,2)</f>
-        <v>90.361999999973222</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$A26,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>89.958666666666673</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.9999999999056399</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+        <v>-46.666666666652645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>38297.836425884765</v>
+      </c>
       <c r="B27" s="5">
         <v>40000</v>
       </c>
       <c r="C27" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$B27,C$18,C$19),C$22,2)</f>
-        <v>90.220750000007257</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$A27,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.436499999999995</v>
       </c>
       <c r="D27" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$B27,D$18,D$19),D$22,2)</f>
-        <v>90.219000000007256</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$A27,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.437250000000006</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.500000000012506</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+        <v>7.5000000001068656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>51534.723448420824</v>
+      </c>
       <c r="B28" s="5">
         <v>50000</v>
       </c>
       <c r="C28" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$B28,C$18,C$19),C$22,2)</f>
-        <v>90.160200000033896</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$A28,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.466399999999993</v>
       </c>
       <c r="D28" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$B28,D$18,D$19),D$22,2)</f>
-        <v>90.157800000033887</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$A28,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.4636</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-24.000000000086175</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+        <v>-27.999999999934744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>51472.212351360235</v>
+      </c>
       <c r="B29" s="5">
         <v>60000</v>
       </c>
       <c r="C29" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$B29,C$18,C$19),C$22,2)</f>
-        <v>90.35516666665481</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$A29,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.444666666666663</v>
       </c>
       <c r="D29" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$B29,D$18,D$19),D$22,2)</f>
-        <v>90.35516666665481</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$A29,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.443333333333328</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>-13.333333333349628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>37841.381036380597</v>
+      </c>
       <c r="B30" s="5">
         <v>70000</v>
       </c>
       <c r="C30" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$B30,C$18,C$19),C$22,2)</f>
-        <v>90.347142857107599</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$A30,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.185285714285712</v>
       </c>
       <c r="D30" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$B30,D$18,D$19),D$22,2)</f>
-        <v>90.347142857107599</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$A30,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.184714285714293</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+        <v>-5.7142857141911918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>24405.032978999403</v>
+      </c>
       <c r="B31" s="5">
         <v>80000</v>
       </c>
       <c r="C31" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$B31,C$18,C$19),C$22,2)</f>
-        <v>90.409624999958481</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$A31,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.288124999999994</v>
       </c>
       <c r="D31" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$B31,D$18,D$19),D$22,2)</f>
-        <v>90.40787499995848</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$A31,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.285749999999993</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.500000000012506</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>-23.750000000006821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>39063.974191810099</v>
+      </c>
       <c r="B32" s="5">
         <v>90000</v>
       </c>
       <c r="C32" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$B32,C$18,C$19),C$22,2)</f>
-        <v>90.3547777778181</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$A32,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.390777777777771</v>
       </c>
       <c r="D32" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$B32,D$18,D$19),D$22,2)</f>
-        <v>90.353222222262531</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$A32,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.390777777777771</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-15.55555555569299</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15">
+        <f ca="1">RAND()*54321</f>
+        <v>31316.541654193672</v>
+      </c>
       <c r="B33" s="5">
         <v>100000</v>
       </c>
       <c r="C33" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$B33,C$18,C$19),C$22,2)</f>
-        <v>90.23189999997507</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$A33,C$18,C$19,,$F$3),C$22,2)</f>
+        <v>90.509200000000007</v>
       </c>
       <c r="D33" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$B33,D$18,D$19),D$22,2)</f>
-        <v>90.229899999975089</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$A33,D$18,D$19,,$F$3),D$22,2)</f>
+        <v>90.507400000000004</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.99999999981128</v>
+        <v>-18.000000000029104</v>
       </c>
     </row>
   </sheetData>
@@ -2280,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2291,10 +2348,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
@@ -2329,17 +2386,17 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="3">
@@ -2378,11 +2435,11 @@
         <v>9</v>
       </c>
       <c r="C18" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="10" t="b">
         <f ca="1">C18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -2448,24 +2505,24 @@
         <v>10000</v>
       </c>
       <c r="C24" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$B24,C$18,C$19),C$22,2)</f>
-        <v>89.699999999997587</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,Sharp!$A24,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.53841562230177</v>
       </c>
       <c r="D24" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$B24,D$18,D$19),D$22,2)</f>
-        <v>89.699999999997587</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,Sharp!$A24,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.53695398184334</v>
       </c>
       <c r="E24" s="4">
         <f ca="1">(D24-C24)/$D$20</f>
-        <v>0</v>
+        <v>-14.616404584302245</v>
       </c>
       <c r="F24" s="8">
         <f ca="1">Sharp!C24</f>
-        <v>89.699999999997587</v>
+        <v>90.534000000000006</v>
       </c>
       <c r="G24" s="8">
         <f ca="1">Sharp!E24</f>
-        <v>0</v>
+        <v>9.9999999999056399</v>
       </c>
     </row>
     <row r="25" spans="2:7">
@@ -2473,24 +2530,24 @@
         <v>20000</v>
       </c>
       <c r="C25" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$B25,C$18,C$19),C$22,2)</f>
-        <v>90.056999999981969</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,Sharp!$A25,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.54021286887307</v>
       </c>
       <c r="D25" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$B25,D$18,D$19),D$22,2)</f>
-        <v>90.057499999981971</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,Sharp!$A25,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.538668844590447</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ref="E25:E33" ca="1" si="0">(D25-C25)/$D$20</f>
-        <v>5.0000000000238742</v>
+        <v>-15.440242826230133</v>
       </c>
       <c r="F25" s="8">
         <f ca="1">Sharp!C25</f>
-        <v>90.056999999981969</v>
+        <v>90.549000000000007</v>
       </c>
       <c r="G25" s="8">
         <f ca="1">Sharp!E25</f>
-        <v>5.0000000000238742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7">
@@ -2498,24 +2555,24 @@
         <v>30000</v>
       </c>
       <c r="C26" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$B26,C$18,C$19),C$22,2)</f>
-        <v>90.071999999973059</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,Sharp!$A26,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>89.983213897851684</v>
       </c>
       <c r="D26" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$B26,D$18,D$19),D$22,2)</f>
-        <v>90.071999999973059</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,Sharp!$A26,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>89.981377088283082</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-18.368095686014385</v>
       </c>
       <c r="F26" s="8">
         <f ca="1">Sharp!C26</f>
-        <v>90.071999999973059</v>
+        <v>89.963333333333338</v>
       </c>
       <c r="G26" s="8">
         <f ca="1">Sharp!E26</f>
-        <v>0</v>
+        <v>-46.666666666652645</v>
       </c>
     </row>
     <row r="27" spans="2:7">
@@ -2523,24 +2580,24 @@
         <v>40000</v>
       </c>
       <c r="C27" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$B27,C$18,C$19),C$22,2)</f>
-        <v>90.558000000007993</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,Sharp!$A27,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.447593560414703</v>
       </c>
       <c r="D27" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$B27,D$18,D$19),D$22,2)</f>
-        <v>90.555250000007987</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,Sharp!$A27,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.445720860353717</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.500000000060254</v>
+        <v>-18.727000609857214</v>
       </c>
       <c r="F27" s="8">
         <f ca="1">Sharp!C27</f>
-        <v>90.558000000007993</v>
+        <v>90.436499999999995</v>
       </c>
       <c r="G27" s="8">
         <f ca="1">Sharp!E27</f>
-        <v>-27.500000000060254</v>
+        <v>7.5000000001068656</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -2548,24 +2605,24 @@
         <v>50000</v>
       </c>
       <c r="C28" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$B28,C$18,C$19),C$22,2)</f>
-        <v>90.196400000035112</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,Sharp!$A28,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.458161913250038</v>
       </c>
       <c r="D28" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$B28,D$18,D$19),D$22,2)</f>
-        <v>90.193400000035112</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,Sharp!$A28,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.456443783023786</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-30.000000000001137</v>
+        <v>-17.181302262514464</v>
       </c>
       <c r="F28" s="8">
         <f ca="1">Sharp!C28</f>
-        <v>90.196400000035112</v>
+        <v>90.466399999999993</v>
       </c>
       <c r="G28" s="8">
         <f ca="1">Sharp!E28</f>
-        <v>-30.000000000001137</v>
+        <v>-27.999999999934744</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -2573,24 +2630,24 @@
         <v>60000</v>
       </c>
       <c r="C29" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$B29,C$18,C$19),C$22,2)</f>
-        <v>90.404666666654421</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,Sharp!$A29,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.436580109937722</v>
       </c>
       <c r="D29" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$B29,D$18,D$19),D$22,2)</f>
-        <v>90.404999999987751</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,Sharp!$A29,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.434832192810333</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.33333333330188</v>
+        <v>-17.47917127389087</v>
       </c>
       <c r="F29" s="8">
         <f ca="1">Sharp!C29</f>
-        <v>90.404666666654421</v>
+        <v>90.444666666666663</v>
       </c>
       <c r="G29" s="8">
         <f ca="1">Sharp!E29</f>
-        <v>3.33333333330188</v>
+        <v>-13.333333333349628</v>
       </c>
     </row>
     <row r="30" spans="2:7">
@@ -2598,24 +2655,24 @@
         <v>70000</v>
       </c>
       <c r="C30" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$B30,C$18,C$19),C$22,2)</f>
-        <v>90.30714285710927</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,Sharp!$A30,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.198551640081988</v>
       </c>
       <c r="D30" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$B30,D$18,D$19),D$22,2)</f>
-        <v>90.305999999966403</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,Sharp!$A30,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.196728662251047</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-11.428571428666601</v>
+        <v>-18.22977830940431</v>
       </c>
       <c r="F30" s="8">
         <f ca="1">Sharp!C30</f>
-        <v>90.30714285710927</v>
+        <v>90.185285714285712</v>
       </c>
       <c r="G30" s="8">
         <f ca="1">Sharp!E30</f>
-        <v>-11.428571428666601</v>
+        <v>-5.7142857141911918</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -2623,24 +2680,24 @@
         <v>80000</v>
       </c>
       <c r="C31" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$B31,C$18,C$19),C$22,2)</f>
-        <v>90.392749999958625</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,Sharp!$A31,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.274651200532034</v>
       </c>
       <c r="D31" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$B31,D$18,D$19),D$22,2)</f>
-        <v>90.392874999958622</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,Sharp!$A31,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.273002869943952</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2499999999704414</v>
+        <v>-16.483305880825583</v>
       </c>
       <c r="F31" s="8">
         <f ca="1">Sharp!C31</f>
-        <v>90.392749999958625</v>
+        <v>90.288124999999994</v>
       </c>
       <c r="G31" s="8">
         <f ca="1">Sharp!E31</f>
-        <v>1.2499999999704414</v>
+        <v>-23.750000000006821</v>
       </c>
     </row>
     <row r="32" spans="2:7">
@@ -2648,24 +2705,24 @@
         <v>90000</v>
       </c>
       <c r="C32" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$B32,C$18,C$19),C$22,2)</f>
-        <v>90.341333333373967</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,Sharp!$A32,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.379822568486929</v>
       </c>
       <c r="D32" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$B32,D$18,D$19),D$22,2)</f>
-        <v>90.339000000040642</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,Sharp!$A32,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.377999484744322</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.333333333255268</v>
+        <v>-18.230837426074231</v>
       </c>
       <c r="F32" s="8">
         <f ca="1">Sharp!C32</f>
-        <v>90.341333333373967</v>
+        <v>90.390777777777771</v>
       </c>
       <c r="G32" s="8">
         <f ca="1">Sharp!E32</f>
-        <v>-23.333333333255268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -2673,24 +2730,24 @@
         <v>100000</v>
       </c>
       <c r="C33" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$B33,C$18,C$19),C$22,2)</f>
-        <v>90.409299999973271</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,Sharp!$A33,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
+        <v>90.517342947239527</v>
       </c>
       <c r="D33" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$B33,D$18,D$19),D$22,2)</f>
-        <v>90.40729999997329</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,Sharp!$A33,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
+        <v>90.5156123601448</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-19.99999999981128</v>
+        <v>-17.305870947268431</v>
       </c>
       <c r="F33" s="8">
         <f ca="1">Sharp!C33</f>
-        <v>90.409299999973271</v>
+        <v>90.509200000000007</v>
       </c>
       <c r="G33" s="8">
         <f ca="1">Sharp!E33</f>
-        <v>-19.99999999981128</v>
+        <v>-18.000000000029104</v>
       </c>
     </row>
   </sheetData>

--- a/xlTest.xlsx
+++ b/xlTest.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sc\Scripting-new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="5" r:id="rId1"/>
     <sheet name="Sharp" sheetId="1" r:id="rId2"/>
     <sheet name="Fuzzy" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="152511" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -111,12 +116,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +215,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,22 +226,22 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3"/>
     <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -248,17 +253,37 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -314,44 +339,54 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>90.534000000000006</c:v>
+                  <c:v>90.644000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.549000000000007</c:v>
+                  <c:v>90.397000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.963333333333338</c:v>
+                  <c:v>90.349000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.436499999999995</c:v>
+                  <c:v>90.260750000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.466399999999993</c:v>
+                  <c:v>90.549800000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.444666666666663</c:v>
+                  <c:v>90.120833333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.185285714285712</c:v>
+                  <c:v>90.261428571428567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.288124999999994</c:v>
+                  <c:v>90.233375000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.390777777777771</c:v>
+                  <c:v>90.288000000000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.509200000000007</c:v>
+                  <c:v>90.510500000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="101395456"/>
-        <c:axId val="101401344"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476159952"/>
+        <c:axId val="476173280"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -407,59 +442,72 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.9999999999056399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.0000000000238742</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-46.666666666652645</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5000000001068656</c:v>
+                  <c:v>-27.499999999918145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-27.999999999934744</c:v>
+                  <c:v>-11.999999999972033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13.333333333349628</c:v>
+                  <c:v>-11.666666666627634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.7142857141911918</c:v>
+                  <c:v>-18.571428571334536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-23.750000000006821</c:v>
+                  <c:v>-25.000000000119371</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-18.000000000029104</c:v>
+                  <c:v>-30.000000000001137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="101404672"/>
-        <c:axId val="101402880"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476172104"/>
+        <c:axId val="476171320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101395456"/>
+        <c:axId val="476159952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="101401344"/>
+        <c:crossAx val="476173280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101401344"/>
+        <c:axId val="476173280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -469,33 +517,40 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101395456"/>
+        <c:crossAx val="476159952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101402880"/>
+        <c:axId val="476171320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101404672"/>
+        <c:crossAx val="476172104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101404672"/>
+        <c:axId val="476172104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="101402880"/>
+        <c:crossAx val="476171320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -503,8 +558,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -516,12 +574,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -577,38 +647,39 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>90.53841562230177</c:v>
+                  <c:v>90.676160050072127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.54021286887307</c:v>
+                  <c:v>90.412891658698697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.983213897851684</c:v>
+                  <c:v>90.35775918813134</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.447593560414703</c:v>
+                  <c:v>90.245134604524665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.458161913250038</c:v>
+                  <c:v>90.572573395073931</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.436580109937722</c:v>
+                  <c:v>90.139848571732344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.198551640081988</c:v>
+                  <c:v>90.249637403008222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.274651200532034</c:v>
+                  <c:v>90.233933582305326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.379822568486929</c:v>
+                  <c:v>90.300954371404501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.517342947239527</c:v>
+                  <c:v>90.508762528558137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -665,44 +736,54 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>90.534000000000006</c:v>
+                  <c:v>90.644000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90.549000000000007</c:v>
+                  <c:v>90.397000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.963333333333338</c:v>
+                  <c:v>90.349000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.436499999999995</c:v>
+                  <c:v>90.260750000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.466399999999993</c:v>
+                  <c:v>90.549800000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.444666666666663</c:v>
+                  <c:v>90.120833333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.185285714285712</c:v>
+                  <c:v>90.261428571428567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.288124999999994</c:v>
+                  <c:v>90.233375000000009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90.390777777777771</c:v>
+                  <c:v>90.288000000000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90.509200000000007</c:v>
+                  <c:v>90.510500000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="103193600"/>
-        <c:axId val="103207680"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476172888"/>
+        <c:axId val="476170928"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -758,38 +839,39 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-14.616404584302245</c:v>
+                  <c:v>-13.419510407715052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15.440242826230133</c:v>
+                  <c:v>-17.33073184453815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-18.368095686014385</c:v>
+                  <c:v>-15.870029875912905</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18.727000609857214</c:v>
+                  <c:v>-15.746523066439977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-17.181302262514464</c:v>
+                  <c:v>-19.160639127449031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.47917127389087</c:v>
+                  <c:v>-17.351039269044577</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-18.22977830940431</c:v>
+                  <c:v>-17.910640581106918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-16.483305880825583</c:v>
+                  <c:v>-18.719470052701581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-18.230837426074231</c:v>
+                  <c:v>-16.245900639972888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-17.305870947268431</c:v>
+                  <c:v>-16.345693209984802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -846,59 +928,72 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.9999999999056399</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.0000000000238742</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-46.666666666652645</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5000000001068656</c:v>
+                  <c:v>-27.499999999918145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-27.999999999934744</c:v>
+                  <c:v>-11.999999999972033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-13.333333333349628</c:v>
+                  <c:v>-11.666666666627634</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5.7142857141911918</c:v>
+                  <c:v>-18.571428571334536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-23.750000000006821</c:v>
+                  <c:v>-25.000000000119371</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-18.000000000029104</c:v>
+                  <c:v>-30.000000000001137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="103211008"/>
-        <c:axId val="103209216"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="476170144"/>
+        <c:axId val="476171712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103193600"/>
+        <c:axId val="476172888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="103207680"/>
+        <c:crossAx val="476170928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103207680"/>
+        <c:axId val="476170928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -908,33 +1003,40 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103193600"/>
+        <c:crossAx val="476172888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103209216"/>
+        <c:axId val="476171712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103211008"/>
+        <c:crossAx val="476170144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103211008"/>
+        <c:axId val="476170144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="103209216"/>
+        <c:crossAx val="476171712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -942,8 +1044,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1066,7 +1171,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,9 +1203,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1132,6 +1238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1307,26 +1414,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1441,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1342,7 +1449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1350,7 +1457,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1358,13 +1465,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1372,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1380,20 +1487,20 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>42104</v>
       </c>
@@ -1408,7 +1515,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>42470</v>
       </c>
@@ -1423,7 +1530,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>42835</v>
       </c>
@@ -1438,7 +1545,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>43200</v>
       </c>
@@ -1453,7 +1560,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1464,7 +1571,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1475,7 +1582,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1486,7 +1593,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1497,7 +1604,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1508,7 +1615,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -1519,7 +1626,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1530,7 +1637,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1541,7 +1648,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -1552,7 +1659,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -1563,7 +1670,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -1574,7 +1681,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1585,7 +1692,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>23</v>
       </c>
@@ -1596,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="str">
         <f t="array" aca="1" ref="B31:C34" ca="1">_xll.TestScript(C3,C4,C5,C6,B13:B28,C13:C28,C10,C9,,,,F30)</f>
         <v>ALIVE</v>
@@ -1606,7 +1713,7 @@
         <v>0.42542000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="str">
         <f ca="1"/>
         <v>AUTOCALL</v>
@@ -1616,7 +1723,7 @@
         <v>90.364400000000003</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1626,7 +1733,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="e">
         <f ca="1"/>
         <v>#N/A</v>
@@ -1636,17 +1743,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
         <v>42470</v>
       </c>
@@ -1661,7 +1768,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>26</v>
       </c>
@@ -1675,7 +1782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="12">
         <v>42104</v>
       </c>
@@ -1690,7 +1797,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="12">
         <v>42134</v>
       </c>
@@ -1706,7 +1813,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
         <v>42165</v>
       </c>
@@ -1722,7 +1829,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
         <v>42195</v>
       </c>
@@ -1738,7 +1845,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
         <v>42226</v>
       </c>
@@ -1754,7 +1861,7 @@
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
         <v>42257</v>
       </c>
@@ -1770,7 +1877,7 @@
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
         <v>42287</v>
       </c>
@@ -1786,7 +1893,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
         <v>42318</v>
       </c>
@@ -1802,7 +1909,7 @@
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
         <v>42348</v>
       </c>
@@ -1818,7 +1925,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
         <v>42379</v>
       </c>
@@ -1834,7 +1941,7 @@
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
         <v>42410</v>
       </c>
@@ -1850,7 +1957,7 @@
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
         <v>42439</v>
       </c>
@@ -1866,7 +1973,7 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
         <v>42470</v>
       </c>
@@ -1882,7 +1989,7 @@
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
         <f ca="1">B54</f>
         <v>42470</v>
@@ -1899,12 +2006,12 @@
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="12">
         <v>42104</v>
       </c>
@@ -1912,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="12">
         <v>42470</v>
       </c>
@@ -1920,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
         <v>42835</v>
       </c>
@@ -1928,7 +2035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="12">
         <v>43200</v>
       </c>
@@ -1947,26 +2054,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +2095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +2103,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2004,20 +2111,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>42104</v>
       </c>
@@ -2025,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>42470</v>
       </c>
@@ -2033,7 +2140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>42835</v>
       </c>
@@ -2041,7 +2148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>43200</v>
       </c>
@@ -2049,7 +2156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -2083,7 +2190,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2113,214 +2220,214 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>7936.7125337918733</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <f t="shared" ref="A24:A33" ca="1" si="0">RAND()*54321</f>
+        <v>41524.719170903292</v>
       </c>
       <c r="B24" s="5">
         <v>10000</v>
       </c>
       <c r="C24" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$A24,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.534000000000006</v>
+        <v>90.644000000000005</v>
       </c>
       <c r="D24" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,$A24,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.534999999999997</v>
+        <v>90.644000000000005</v>
       </c>
       <c r="E24" s="4">
         <f ca="1">(D24-C24)/$D$20</f>
-        <v>9.9999999999056399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>1147.9682829443109</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>17590.731952925729</v>
       </c>
       <c r="B25" s="5">
         <v>20000</v>
       </c>
       <c r="C25" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$A25,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.549000000000007</v>
+        <v>90.397000000000006</v>
       </c>
       <c r="D25" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,$A25,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.549000000000007</v>
+        <v>90.397500000000008</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" ref="E25:E33" ca="1" si="0">(D25-C25)/$D$20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>38805.271604255722</v>
+        <f t="shared" ref="E25:E33" ca="1" si="1">(D25-C25)/$D$20</f>
+        <v>5.0000000000238742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>29042.403565745746</v>
       </c>
       <c r="B26" s="5">
         <v>30000</v>
       </c>
       <c r="C26" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$A26,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>89.963333333333338</v>
+        <v>90.349000000000004</v>
       </c>
       <c r="D26" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,$A26,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>89.958666666666673</v>
+        <v>90.349000000000004</v>
       </c>
       <c r="E26" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-46.666666666652645</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>38297.836425884765</v>
+        <v>24725.495573572647</v>
       </c>
       <c r="B27" s="5">
         <v>40000</v>
       </c>
       <c r="C27" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$A27,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.436499999999995</v>
+        <v>90.260750000000002</v>
       </c>
       <c r="D27" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,$A27,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.437250000000006</v>
+        <v>90.25800000000001</v>
       </c>
       <c r="E27" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-27.499999999918145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5000000001068656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>51534.723448420824</v>
+        <v>50179.705623223519</v>
       </c>
       <c r="B28" s="5">
         <v>50000</v>
       </c>
       <c r="C28" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$A28,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.466399999999993</v>
+        <v>90.549800000000005</v>
       </c>
       <c r="D28" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,$A28,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.4636</v>
+        <v>90.548600000000008</v>
       </c>
       <c r="E28" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-11.999999999972033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-27.999999999934744</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>51472.212351360235</v>
+        <v>21370.954361403186</v>
       </c>
       <c r="B29" s="5">
         <v>60000</v>
       </c>
       <c r="C29" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$A29,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.444666666666663</v>
+        <v>90.120833333333337</v>
       </c>
       <c r="D29" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,$A29,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.443333333333328</v>
+        <v>90.119666666666674</v>
       </c>
       <c r="E29" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-11.666666666627634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-13.333333333349628</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>37841.381036380597</v>
+        <v>10083.974692467604</v>
       </c>
       <c r="B30" s="5">
         <v>70000</v>
       </c>
       <c r="C30" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$A30,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.185285714285712</v>
+        <v>90.261428571428567</v>
       </c>
       <c r="D30" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,$A30,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.184714285714293</v>
+        <v>90.259571428571434</v>
       </c>
       <c r="E30" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-18.571428571334536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7142857141911918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>24405.032978999403</v>
+        <v>26797.954255144996</v>
       </c>
       <c r="B31" s="5">
         <v>80000</v>
       </c>
       <c r="C31" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$A31,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.288124999999994</v>
+        <v>90.233375000000009</v>
       </c>
       <c r="D31" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,$A31,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.285749999999993</v>
+        <v>90.230874999999997</v>
       </c>
       <c r="E31" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>-25.000000000119371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-23.750000000006821</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>39063.974191810099</v>
+        <v>26298.914708545573</v>
       </c>
       <c r="B32" s="5">
         <v>90000</v>
       </c>
       <c r="C32" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$A32,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.390777777777771</v>
+        <v>90.288000000000011</v>
       </c>
       <c r="D32" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,$A32,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.390777777777771</v>
+        <v>90.288000000000011</v>
       </c>
       <c r="E32" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="15">
-        <f ca="1">RAND()*54321</f>
-        <v>31316.541654193672</v>
+        <v>6039.5478771769631</v>
       </c>
       <c r="B33" s="5">
         <v>100000</v>
       </c>
       <c r="C33" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$A33,C$18,C$19,,$F$3),C$22,2)</f>
-        <v>90.509200000000007</v>
+        <v>90.510500000000008</v>
       </c>
       <c r="D33" s="4">
         <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,$A33,D$18,D$19,,$F$3),D$22,2)</f>
-        <v>90.507400000000004</v>
+        <v>90.507500000000007</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>-18.000000000029104</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>-30.000000000001137</v>
       </c>
     </row>
   </sheetData>
@@ -2334,26 +2441,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2468,7 @@
         <v>42104</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2484,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2385,20 +2492,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>42104</v>
       </c>
@@ -2406,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>42470</v>
       </c>
@@ -2414,7 +2521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>42835</v>
       </c>
@@ -2422,7 +2529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>43200</v>
       </c>
@@ -2430,7 +2537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>9</v>
       </c>
@@ -2442,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -2464,7 +2571,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>12</v>
       </c>
@@ -2475,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -2486,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>8</v>
       </c>
@@ -2500,254 +2607,254 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <v>10000</v>
       </c>
       <c r="C24" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,Sharp!$A24,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.53841562230177</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,Sharp!$A24,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.676160050072127</v>
       </c>
       <c r="D24" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,Sharp!$A24,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.53695398184334</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B24,Sharp!$A24,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.674818099031356</v>
       </c>
       <c r="E24" s="4">
         <f ca="1">(D24-C24)/$D$20</f>
-        <v>-14.616404584302245</v>
+        <v>-13.419510407715052</v>
       </c>
       <c r="F24" s="8">
         <f ca="1">Sharp!C24</f>
-        <v>90.534000000000006</v>
+        <v>90.644000000000005</v>
       </c>
       <c r="G24" s="8">
         <f ca="1">Sharp!E24</f>
-        <v>9.9999999999056399</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
         <v>20000</v>
       </c>
       <c r="C25" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,Sharp!$A25,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.54021286887307</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,Sharp!$A25,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.412891658698697</v>
       </c>
       <c r="D25" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,Sharp!$A25,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.538668844590447</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B25,Sharp!$A25,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.411158585514244</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ref="E25:E33" ca="1" si="0">(D25-C25)/$D$20</f>
-        <v>-15.440242826230133</v>
+        <v>-17.33073184453815</v>
       </c>
       <c r="F25" s="8">
         <f ca="1">Sharp!C25</f>
-        <v>90.549000000000007</v>
+        <v>90.397000000000006</v>
       </c>
       <c r="G25" s="8">
         <f ca="1">Sharp!E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>5.0000000000238742</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <v>30000</v>
       </c>
       <c r="C26" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,Sharp!$A26,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>89.983213897851684</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,Sharp!$A26,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.35775918813134</v>
       </c>
       <c r="D26" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,Sharp!$A26,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>89.981377088283082</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B26,Sharp!$A26,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.356172185143748</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.368095686014385</v>
+        <v>-15.870029875912905</v>
       </c>
       <c r="F26" s="8">
         <f ca="1">Sharp!C26</f>
-        <v>89.963333333333338</v>
+        <v>90.349000000000004</v>
       </c>
       <c r="G26" s="8">
         <f ca="1">Sharp!E26</f>
-        <v>-46.666666666652645</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>40000</v>
       </c>
       <c r="C27" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,Sharp!$A27,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.447593560414703</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,Sharp!$A27,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.245134604524665</v>
       </c>
       <c r="D27" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,Sharp!$A27,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.445720860353717</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B27,Sharp!$A27,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.243559952218021</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.727000609857214</v>
+        <v>-15.746523066439977</v>
       </c>
       <c r="F27" s="8">
         <f ca="1">Sharp!C27</f>
-        <v>90.436499999999995</v>
+        <v>90.260750000000002</v>
       </c>
       <c r="G27" s="8">
         <f ca="1">Sharp!E27</f>
-        <v>7.5000000001068656</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>-27.499999999918145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
         <v>50000</v>
       </c>
       <c r="C28" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,Sharp!$A28,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.458161913250038</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,Sharp!$A28,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.572573395073931</v>
       </c>
       <c r="D28" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,Sharp!$A28,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.456443783023786</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B28,Sharp!$A28,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.570657331161186</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.181302262514464</v>
+        <v>-19.160639127449031</v>
       </c>
       <c r="F28" s="8">
         <f ca="1">Sharp!C28</f>
-        <v>90.466399999999993</v>
+        <v>90.549800000000005</v>
       </c>
       <c r="G28" s="8">
         <f ca="1">Sharp!E28</f>
-        <v>-27.999999999934744</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>-11.999999999972033</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
         <v>60000</v>
       </c>
       <c r="C29" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,Sharp!$A29,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.436580109937722</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,Sharp!$A29,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.139848571732344</v>
       </c>
       <c r="D29" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,Sharp!$A29,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.434832192810333</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B29,Sharp!$A29,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.138113467805439</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.47917127389087</v>
+        <v>-17.351039269044577</v>
       </c>
       <c r="F29" s="8">
         <f ca="1">Sharp!C29</f>
-        <v>90.444666666666663</v>
+        <v>90.120833333333337</v>
       </c>
       <c r="G29" s="8">
         <f ca="1">Sharp!E29</f>
-        <v>-13.333333333349628</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
+        <v>-11.666666666627634</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
         <v>70000</v>
       </c>
       <c r="C30" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,Sharp!$A30,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.198551640081988</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,Sharp!$A30,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.249637403008222</v>
       </c>
       <c r="D30" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,Sharp!$A30,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.196728662251047</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B30,Sharp!$A30,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.247846338950112</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.22977830940431</v>
+        <v>-17.910640581106918</v>
       </c>
       <c r="F30" s="8">
         <f ca="1">Sharp!C30</f>
-        <v>90.185285714285712</v>
+        <v>90.261428571428567</v>
       </c>
       <c r="G30" s="8">
         <f ca="1">Sharp!E30</f>
-        <v>-5.7142857141911918</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>-18.571428571334536</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
         <v>80000</v>
       </c>
       <c r="C31" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,Sharp!$A31,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.274651200532034</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,Sharp!$A31,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.233933582305326</v>
       </c>
       <c r="D31" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,Sharp!$A31,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.273002869943952</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B31,Sharp!$A31,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.232061635300056</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-16.483305880825583</v>
+        <v>-18.719470052701581</v>
       </c>
       <c r="F31" s="8">
         <f ca="1">Sharp!C31</f>
-        <v>90.288124999999994</v>
+        <v>90.233375000000009</v>
       </c>
       <c r="G31" s="8">
         <f ca="1">Sharp!E31</f>
-        <v>-23.750000000006821</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>-25.000000000119371</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
         <v>90000</v>
       </c>
       <c r="C32" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,Sharp!$A32,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.379822568486929</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,Sharp!$A32,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.300954371404501</v>
       </c>
       <c r="D32" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,Sharp!$A32,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.377999484744322</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B32,Sharp!$A32,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.299329781340504</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-18.230837426074231</v>
+        <v>-16.245900639972888</v>
       </c>
       <c r="F32" s="8">
         <f ca="1">Sharp!C32</f>
-        <v>90.390777777777771</v>
+        <v>90.288000000000011</v>
       </c>
       <c r="G32" s="8">
         <f ca="1">Sharp!E32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
         <v>100000</v>
       </c>
       <c r="C33" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,Sharp!$A33,C$18,C$19,,Sharp!$F$3),C$22,2)</f>
-        <v>90.517342947239527</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+C$21,$C$5+C$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,Sharp!$A33,C$18,C$19,,FALSE),C$22,2)</f>
+        <v>90.508762528558137</v>
       </c>
       <c r="D33" s="4">
-        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,Sharp!$A33,D$18,D$19,,Sharp!$F$3),D$22,2)</f>
-        <v>90.5156123601448</v>
+        <f ca="1">INDEX(_xll.TestScript($C$3,$C$4+D$21,$C$5+D$20,$C$6,$B$10:$B$16,$C$10:$C$16,$B33,Sharp!$A33,D$18,D$19,,FALSE),D$22,2)</f>
+        <v>90.507127959237138</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>-17.305870947268431</v>
+        <v>-16.345693209984802</v>
       </c>
       <c r="F33" s="8">
         <f ca="1">Sharp!C33</f>
-        <v>90.509200000000007</v>
+        <v>90.510500000000008</v>
       </c>
       <c r="G33" s="8">
         <f ca="1">Sharp!E33</f>
-        <v>-18.000000000029104</v>
+        <v>-30.000000000001137</v>
       </c>
     </row>
   </sheetData>
